--- a/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
@@ -7741,97 +7741,97 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>1166</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7889,12 +7889,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10292</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7924,12 +7924,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>19616</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
@@ -735,17 +735,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7969</t>
+          <t>8901</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5798</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10542</t>
+          <t>11841</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5972</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4037</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8575</t>
+          <t>9033</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>13941</t>
+          <t>15381</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11132</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17352</t>
+          <t>19259</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>137841</t>
+          <t>153900</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>135268</t>
+          <t>150960</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>140012</t>
+          <t>156228</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>136919</t>
+          <t>162087</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>134316</t>
+          <t>159534</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>138854</t>
+          <t>164182</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>274760</t>
+          <t>315987</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>271349</t>
+          <t>312109</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>277569</t>
+          <t>319259</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>8203</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5409</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3872</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7543</t>
+          <t>8592</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10112</t>
+          <t>12021</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7889</t>
+          <t>9162</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13030</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76468</t>
+          <t>84584</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74259</t>
+          <t>82222</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77829</t>
+          <t>86305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>103708</t>
+          <t>116488</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>101574</t>
+          <t>114076</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>105245</t>
+          <t>118562</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>180177</t>
+          <t>201072</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>177259</t>
+          <t>198074</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>182400</t>
+          <t>203931</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18470</t>
+          <t>15416</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14892</t>
+          <t>12543</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22465</t>
+          <t>18616</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>6597</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7949</t>
+          <t>8841</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24342</t>
+          <t>22013</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20672</t>
+          <t>18529</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>29298</t>
+          <t>25992</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>145386</t>
+          <t>138468</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>141391</t>
+          <t>135268</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148964</t>
+          <t>141341</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57273</t>
+          <t>55020</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55196</t>
+          <t>52776</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>58882</t>
+          <t>56957</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,7%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>202659</t>
+          <t>193488</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>197703</t>
+          <t>189509</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>206329</t>
+          <t>196972</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18635</t>
+          <t>17435</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15358</t>
+          <t>14434</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22642</t>
+          <t>21351</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15039</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11917</t>
+          <t>11016</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18598</t>
+          <t>17273</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>33674</t>
+          <t>31413</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>28934</t>
+          <t>27013</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>39379</t>
+          <t>35978</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>151454</t>
+          <t>152284</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>147447</t>
+          <t>148368</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>154731</t>
+          <t>155285</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>162144</t>
+          <t>168212</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>158585</t>
+          <t>164917</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>165266</t>
+          <t>171174</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>313597</t>
+          <t>320496</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>307892</t>
+          <t>315931</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>318337</t>
+          <t>324896</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>92,32%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>5733</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5079</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10402</t>
+          <t>7927</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17292</t>
+          <t>15513</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14196</t>
+          <t>12729</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21299</t>
+          <t>18763</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>24229</t>
+          <t>21246</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>20420</t>
+          <t>17701</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>28696</t>
+          <t>25142</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69914</t>
+          <t>68718</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66449</t>
+          <t>66524</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71772</t>
+          <t>70403</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>115640</t>
+          <t>109903</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>111633</t>
+          <t>106653</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118736</t>
+          <t>112687</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>185554</t>
+          <t>178621</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>181087</t>
+          <t>174725</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>189363</t>
+          <t>182166</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>91,14%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>347</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15600</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12829</t>
+          <t>12166</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18845</t>
+          <t>18352</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>16078</t>
+          <t>15040</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13127</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19660</t>
+          <t>18192</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44783</t>
+          <t>55256</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43493</t>
+          <t>54368</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>102677</t>
+          <t>107908</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>99432</t>
+          <t>104249</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>105448</t>
+          <t>110435</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>147460</t>
+          <t>163164</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>143878</t>
+          <t>160012</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>150411</t>
+          <t>166435</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,98%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>57193</t>
+          <t>53673</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50877</t>
+          <t>47821</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>63352</t>
+          <t>59896</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>65185</t>
+          <t>63440</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>58316</t>
+          <t>56745</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>72768</t>
+          <t>70403</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>122377</t>
+          <t>117113</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>112838</t>
+          <t>108721</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>131859</t>
+          <t>125916</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>625846</t>
+          <t>653210</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>619687</t>
+          <t>646987</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>632162</t>
+          <t>659062</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>678359</t>
+          <t>719619</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>670776</t>
+          <t>712656</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>685228</t>
+          <t>726314</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1304206</t>
+          <t>1372828</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1294724</t>
+          <t>1364025</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1313745</t>
+          <t>1381220</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>92,7%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17670</t>
+          <t>17636</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35530</t>
+          <t>36524</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7576</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18104</t>
+          <t>18028</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27763</t>
+          <t>28888</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>49816</t>
+          <t>49905</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>331153</t>
+          <t>330159</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>349013</t>
+          <t>349047</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>280797</t>
+          <t>280873</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>291325</t>
+          <t>290878</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>615768</t>
+          <t>615679</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>637821</t>
+          <t>636696</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,66%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11712</t>
+          <t>10708</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27027</t>
+          <t>25307</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8344</t>
+          <t>8530</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19907</t>
+          <t>20764</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22822</t>
+          <t>22403</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41284</t>
+          <t>41160</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3811,12 +3811,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>297020</t>
+          <t>298740</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>312335</t>
+          <t>313339</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>240174</t>
+          <t>239317</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>251737</t>
+          <t>251551</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>542844</t>
+          <t>542968</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>561306</t>
+          <t>561725</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,12 +3924,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39047</t>
+          <t>38962</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5858</t>
+          <t>5959</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14404</t>
+          <t>14488</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>7942</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50445</t>
+          <t>50602</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>436377</t>
+          <t>436462</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>472519</t>
+          <t>471812</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83160</t>
+          <t>83076</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91706</t>
+          <t>91605</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>522543</t>
+          <t>522386</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564552</t>
+          <t>565046</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,61%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17774</t>
+          <t>17346</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35174</t>
+          <t>35940</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9503</t>
+          <t>10279</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45436</t>
+          <t>45096</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>30320</t>
+          <t>31353</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>71034</t>
+          <t>70073</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>500981</t>
+          <t>500215</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>518381</t>
+          <t>518809</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>591202</t>
+          <t>591542</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>627135</t>
+          <t>626359</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1101759</t>
+          <t>1102720</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1142473</t>
+          <t>1141440</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4610,12 +4610,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4482</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32499</t>
+          <t>28969</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,12 +4770,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17078</t>
+          <t>17646</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39596</t>
+          <t>39629</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28072</t>
+          <t>26415</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>62007</t>
+          <t>59812</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,42%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>178723</t>
+          <t>182253</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>206740</t>
+          <t>207200</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4883,12 +4883,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>384353</t>
+          <t>384320</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>406871</t>
+          <t>406303</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>573164</t>
+          <t>575359</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>607099</t>
+          <t>608756</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6339</t>
+          <t>5560</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27600</t>
+          <t>28447</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>45447</t>
+          <t>46830</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>29105</t>
+          <t>30186</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>47963</t>
+          <t>48133</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,33%</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>160422</t>
+          <t>161201</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>444521</t>
+          <t>443138</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>462368</t>
+          <t>461521</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,44%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>608766</t>
+          <t>608596</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>627624</t>
+          <t>626543</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,4%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>65966</t>
+          <t>67073</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>125530</t>
+          <t>127593</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>93675</t>
+          <t>92753</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>153169</t>
+          <t>153428</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>183395</t>
+          <t>178176</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>269072</t>
+          <t>264111</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,16%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1954762</t>
+          <t>1952699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2014326</t>
+          <t>2013219</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2053932</t>
+          <t>2053673</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2113426</t>
+          <t>2114348</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4018321</t>
+          <t>4023282</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4103998</t>
+          <t>4109217</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_DIG-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8901</t>
+          <t>27155</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>18550</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11841</t>
+          <t>37526</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>14402</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>9557</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9033</t>
+          <t>21155</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15381</t>
+          <t>41557</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12109</t>
+          <t>31637</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19259</t>
+          <t>53665</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>807</t>
+          <t>365</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>153900</t>
+          <t>368232</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>150960</t>
+          <t>357861</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>156228</t>
+          <t>376837</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>431</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>162087</t>
+          <t>313224</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>159534</t>
+          <t>306471</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>164182</t>
+          <t>318069</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>796</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>315987</t>
+          <t>681456</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>312109</t>
+          <t>669348</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>319259</t>
+          <t>691376</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>95,62%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5841</t>
+          <t>18224</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>11223</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>26688</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>13724</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4106</t>
+          <t>8882</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8592</t>
+          <t>21458</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>45</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>12021</t>
+          <t>31948</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>9162</t>
+          <t>23377</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>42889</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84584</t>
+          <t>326123</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82222</t>
+          <t>317659</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86305</t>
+          <t>333124</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>116488</t>
+          <t>273216</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114076</t>
+          <t>265482</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>118562</t>
+          <t>278058</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>682</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>201072</t>
+          <t>599339</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>198074</t>
+          <t>588398</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>203931</t>
+          <t>607910</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,3%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15416</t>
+          <t>17096</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12543</t>
+          <t>9995</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18616</t>
+          <t>25512</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6597</t>
+          <t>11333</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>6704</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>16623</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22013</t>
+          <t>28429</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18529</t>
+          <t>20554</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>25992</t>
+          <t>38650</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>138468</t>
+          <t>243460</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>135268</t>
+          <t>235044</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>141341</t>
+          <t>250561</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>55020</t>
+          <t>100153</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52776</t>
+          <t>94863</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56957</t>
+          <t>104782</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,65%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>193488</t>
+          <t>343614</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>189509</t>
+          <t>333393</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>196972</t>
+          <t>351489</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>94,48%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17435</t>
+          <t>29222</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14434</t>
+          <t>20589</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21351</t>
+          <t>41564</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13978</t>
+          <t>31028</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11016</t>
+          <t>23490</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17273</t>
+          <t>40605</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>31413</t>
+          <t>60250</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>27013</t>
+          <t>48187</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35978</t>
+          <t>74745</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>152284</t>
+          <t>580760</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>148368</t>
+          <t>568418</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>155285</t>
+          <t>589393</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>953</t>
+          <t>619</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>168212</t>
+          <t>459125</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>164917</t>
+          <t>449548</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>171174</t>
+          <t>466663</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>320496</t>
+          <t>1039885</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>315931</t>
+          <t>1025390</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>324896</t>
+          <t>1051948</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>95,62%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>8968</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7927</t>
+          <t>18983</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15513</t>
+          <t>33796</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12729</t>
+          <t>26348</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18763</t>
+          <t>42767</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>21246</t>
+          <t>42763</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17701</t>
+          <t>33056</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25142</t>
+          <t>56842</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>223</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>68718</t>
+          <t>244373</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66524</t>
+          <t>234358</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70403</t>
+          <t>249548</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,56%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>527</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>109903</t>
+          <t>374223</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>106653</t>
+          <t>365252</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>112687</t>
+          <t>381671</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>91,72%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>750</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>178621</t>
+          <t>618598</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>174725</t>
+          <t>604519</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>182166</t>
+          <t>628305</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>95,0%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,77 +2475,77 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14693</t>
+          <t>40662</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12166</t>
+          <t>31949</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18352</t>
+          <t>52052</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15040</t>
+          <t>42158</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11769</t>
+          <t>33415</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18192</t>
+          <t>53439</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -2558,32 +2558,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55256</t>
+          <t>168001</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54368</t>
+          <t>164116</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2593,72 +2593,72 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>107908</t>
+          <t>506212</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>104249</t>
+          <t>494822</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>110435</t>
+          <t>514925</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>866</t>
+          <t>701</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>163164</t>
+          <t>674213</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>160012</t>
+          <t>662932</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>166435</t>
+          <t>682956</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>95,34%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>53673</t>
+          <t>102161</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47821</t>
+          <t>83722</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>59896</t>
+          <t>122392</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>247</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>63440</t>
+          <t>144944</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>56745</t>
+          <t>128982</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>70403</t>
+          <t>166550</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>370</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>117113</t>
+          <t>247106</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>108721</t>
+          <t>222796</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>125916</t>
+          <t>276322</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>6,57%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3670</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>653210</t>
+          <t>1930949</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>646987</t>
+          <t>1910718</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>659062</t>
+          <t>1949388</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4015</t>
+          <t>2717</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>719619</t>
+          <t>2026155</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>712656</t>
+          <t>2004549</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>726314</t>
+          <t>2042117</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7685</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1372828</t>
+          <t>3957103</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1364025</t>
+          <t>3927887</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1381220</t>
+          <t>3981413</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26158</t>
+          <t>7721</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17636</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36524</t>
+          <t>12141</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12323</t>
+          <t>10753</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>6638</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18028</t>
+          <t>16459</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>38481</t>
+          <t>18474</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>28888</t>
+          <t>13106</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>49905</t>
+          <t>26244</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>340525</t>
+          <t>287802</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>330159</t>
+          <t>283382</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>349047</t>
+          <t>290797</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>448</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>286578</t>
+          <t>265947</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>280873</t>
+          <t>260241</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>290878</t>
+          <t>270062</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>945</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>627103</t>
+          <t>553748</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>615679</t>
+          <t>545978</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>636696</t>
+          <t>559116</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>97,71%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17461</t>
+          <t>9101</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10708</t>
+          <t>5283</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25307</t>
+          <t>14171</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13250</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20764</t>
+          <t>11689</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>30711</t>
+          <t>15634</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>22403</t>
+          <t>10103</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>41160</t>
+          <t>21869</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>306586</t>
+          <t>186671</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>298740</t>
+          <t>181601</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>313339</t>
+          <t>190489</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>383</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>246831</t>
+          <t>225446</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>239317</t>
+          <t>220290</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>251551</t>
+          <t>228474</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>553417</t>
+          <t>412116</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>542968</t>
+          <t>405881</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>561725</t>
+          <t>417647</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16331</t>
+          <t>11614</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>7363</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38962</t>
+          <t>18062</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9652</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5959</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14488</t>
+          <t>6532</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>25983</t>
+          <t>15322</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7942</t>
+          <t>10534</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>50602</t>
+          <t>21691</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>459093</t>
+          <t>169257</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>436462</t>
+          <t>162809</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471812</t>
+          <t>173508</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87912</t>
+          <t>79092</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83076</t>
+          <t>76268</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91605</t>
+          <t>81122</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>469</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>547005</t>
+          <t>248350</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>522386</t>
+          <t>241981</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>565046</t>
+          <t>253138</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>96,0%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25297</t>
+          <t>16937</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17346</t>
+          <t>11206</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35940</t>
+          <t>24549</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27478</t>
+          <t>19425</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10279</t>
+          <t>13374</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45096</t>
+          <t>26841</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>52776</t>
+          <t>36361</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>31353</t>
+          <t>27395</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>70073</t>
+          <t>46953</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>7,52%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>510858</t>
+          <t>291496</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>500215</t>
+          <t>283884</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>518809</t>
+          <t>297227</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>519</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>609160</t>
+          <t>296538</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>591542</t>
+          <t>289122</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>626359</t>
+          <t>302589</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1120017</t>
+          <t>588035</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1102720</t>
+          <t>577443</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1141440</t>
+          <t>597001</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,27 +4745,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11523</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4022</t>
+          <t>2856</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28969</t>
+          <t>9540</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -4775,77 +4775,77 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29584</t>
+          <t>9344</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17646</t>
+          <t>6067</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>39629</t>
+          <t>14370</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>41107</t>
+          <t>14883</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>26415</t>
+          <t>9971</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>59812</t>
+          <t>21391</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -4858,32 +4858,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>248</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>199699</t>
+          <t>144746</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>182253</t>
+          <t>140745</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>207200</t>
+          <t>147429</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -4893,72 +4893,72 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>394365</t>
+          <t>145724</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>384320</t>
+          <t>140698</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>406303</t>
+          <t>149001</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>496</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>594064</t>
+          <t>290471</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>575359</t>
+          <t>283963</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>608756</t>
+          <t>295383</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,73%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>5560</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>36411</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>28447</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>46830</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>37943</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30186</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>48133</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>165230</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>161201</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11434</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>625</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>453557</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>443138</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>461521</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>92,57%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>618786</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>608596</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>626543</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>98301</t>
+          <t>50912</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>67073</t>
+          <t>41325</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>127593</t>
+          <t>61473</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>128699</t>
+          <t>49764</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>92753</t>
+          <t>40021</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>153428</t>
+          <t>61121</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>203</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>227000</t>
+          <t>100676</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>178176</t>
+          <t>85608</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>264111</t>
+          <t>114755</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1981991</t>
+          <t>1089319</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1952699</t>
+          <t>1078758</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2013219</t>
+          <t>1098906</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2717</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2078402</t>
+          <t>1024181</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2053673</t>
+          <t>1012824</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2114348</t>
+          <t>1033924</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4060393</t>
+          <t>2113500</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4023282</t>
+          <t>2099421</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4109217</t>
+          <t>2128568</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>96,13%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos para el estómago en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>8901</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>6573</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12141</t>
+          <t>11841</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10753</t>
+          <t>6480</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6638</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16459</t>
+          <t>9033</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>18474</t>
+          <t>15381</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>13106</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>26244</t>
+          <t>19259</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>807</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>287802</t>
+          <t>153900</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>283382</t>
+          <t>150960</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>290797</t>
+          <t>156228</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>845</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>265947</t>
+          <t>162087</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>260241</t>
+          <t>159534</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>270062</t>
+          <t>164182</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>553748</t>
+          <t>315987</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>545978</t>
+          <t>312109</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>559116</t>
+          <t>319259</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>96,35%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5283</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14171</t>
+          <t>8203</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>4106</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11689</t>
+          <t>8592</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15634</t>
+          <t>12021</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10103</t>
+          <t>9162</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21869</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>186671</t>
+          <t>84584</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>181601</t>
+          <t>82222</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>190489</t>
+          <t>86305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>639</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>225446</t>
+          <t>116488</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>220290</t>
+          <t>114076</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>228474</t>
+          <t>118562</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>412116</t>
+          <t>201072</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>405881</t>
+          <t>198074</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>417647</t>
+          <t>203931</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11614</t>
+          <t>15416</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7363</t>
+          <t>12543</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18062</t>
+          <t>18616</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>6597</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6532</t>
+          <t>8841</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>135</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15322</t>
+          <t>22013</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10534</t>
+          <t>18529</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21691</t>
+          <t>25992</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>169257</t>
+          <t>138468</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>162809</t>
+          <t>135268</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>173508</t>
+          <t>141341</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>328</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79092</t>
+          <t>55020</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76268</t>
+          <t>52776</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81122</t>
+          <t>56957</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>89,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>248350</t>
+          <t>193488</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>241981</t>
+          <t>189509</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>253138</t>
+          <t>196972</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16937</t>
+          <t>17435</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11206</t>
+          <t>14434</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24549</t>
+          <t>21351</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19425</t>
+          <t>13978</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13374</t>
+          <t>11016</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26841</t>
+          <t>17273</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>194</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>36361</t>
+          <t>31413</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>27395</t>
+          <t>27013</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>46953</t>
+          <t>35978</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>895</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>291496</t>
+          <t>152284</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>283884</t>
+          <t>148368</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>297227</t>
+          <t>155285</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>953</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>296538</t>
+          <t>168212</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>289122</t>
+          <t>164917</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>302589</t>
+          <t>171174</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>588035</t>
+          <t>320496</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>577443</t>
+          <t>315931</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>597001</t>
+          <t>324896</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>92,32%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>5733</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9540</t>
+          <t>7927</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9344</t>
+          <t>15513</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6067</t>
+          <t>12729</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>14370</t>
+          <t>18763</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>132</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>21246</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9971</t>
+          <t>17701</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>21391</t>
+          <t>25142</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>144746</t>
+          <t>68718</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>140745</t>
+          <t>66524</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>147429</t>
+          <t>70403</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>145724</t>
+          <t>109903</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>140698</t>
+          <t>106653</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>149001</t>
+          <t>112687</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>290471</t>
+          <t>178621</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>283963</t>
+          <t>174725</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>295383</t>
+          <t>182166</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>91,14%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14693</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12166</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18352</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15040</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18192</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,44%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55256</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>54368</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>99,38%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>97,78%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>600</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>107908</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>104249</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>110435</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>866</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>163164</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>160012</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>166435</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,4%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>50912</t>
+          <t>53673</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>41325</t>
+          <t>47821</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>61473</t>
+          <t>59896</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>381</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>49764</t>
+          <t>63440</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40021</t>
+          <t>56745</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>61121</t>
+          <t>70403</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>704</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>100676</t>
+          <t>117113</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>85608</t>
+          <t>108721</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>114755</t>
+          <t>125916</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1089319</t>
+          <t>653210</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1078758</t>
+          <t>646987</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1098906</t>
+          <t>659062</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>4015</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1024181</t>
+          <t>719619</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1012824</t>
+          <t>712656</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1033924</t>
+          <t>726314</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>91,9%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3721</t>
+          <t>7685</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2113500</t>
+          <t>1372828</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2099421</t>
+          <t>1364025</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2128568</t>
+          <t>1381220</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>92,7%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
